--- a/biology/Médecine/Hans_Delmotte/Hans_Delmotte.xlsx
+++ b/biology/Médecine/Hans_Delmotte/Hans_Delmotte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hans Delmotte (né le 15 décembre 1917 à Liège et mort en 1945) est un médecin SS belge du camp de concentration d'Auschwitz.
 </t>
@@ -511,10 +523,12 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Issu d'une riche famille d'industriels[1], l'Obersturmführer[2] Hans Delmotte, était l'assistant de Josef Mengele[3] à l'Institut d'hygiène de la Waffen-SS. Au début, il a refusé de participer aux sélections, allant jusqu'à dire à ses supérieurs : « Vous pouvez m'envoyer au front ou me gazer, mais je ne le ferai pas »[4]. À la fin de l'automne 1944, il fut finalement persuadé de participer à des sélections. Pour sa thèse Delmotte s'est fait assister par un prisonnier juif docteur et professeur. Pour cette recherche, Delmotte a participé à des expériences de typhus sur des prisonniers à Auschwitz. Sa thèse « Contributions à la physiologie pathologique de la sécrétion gastrique dans la fièvre typhoïde » était déjà terminée en 1944.
-Après l'évacuation d'Auschwitz en janvier 1945, Delmotte a brièvement continué à travailler au camp de concentration de Dachau. En essayant de retourner en Belgique, il a été arrêté par des membres de l'armée américaine. Durant son transfert vers une prison, Delmotte est parvenu à se suicider en se tirant une balle[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Issu d'une riche famille d'industriels, l'Obersturmführer Hans Delmotte, était l'assistant de Josef Mengele à l'Institut d'hygiène de la Waffen-SS. Au début, il a refusé de participer aux sélections, allant jusqu'à dire à ses supérieurs : « Vous pouvez m'envoyer au front ou me gazer, mais je ne le ferai pas ». À la fin de l'automne 1944, il fut finalement persuadé de participer à des sélections. Pour sa thèse Delmotte s'est fait assister par un prisonnier juif docteur et professeur. Pour cette recherche, Delmotte a participé à des expériences de typhus sur des prisonniers à Auschwitz. Sa thèse « Contributions à la physiologie pathologique de la sécrétion gastrique dans la fièvre typhoïde » était déjà terminée en 1944.
+Après l'évacuation d'Auschwitz en janvier 1945, Delmotte a brièvement continué à travailler au camp de concentration de Dachau. En essayant de retourner en Belgique, il a été arrêté par des membres de l'armée américaine. Durant son transfert vers une prison, Delmotte est parvenu à se suicider en se tirant une balle.
 </t>
         </is>
       </c>
